--- a/biology/Histoire de la zoologie et de la botanique/Alpheus_Hyatt/Alpheus_Hyatt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alpheus_Hyatt/Alpheus_Hyatt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpheus Hyatt est un naturaliste américain, né le 5 avril 1838 à Washington D.C. et mort le 15 janvier 1902 (à 63 ans) à Cambridge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1858 à 1862, il étudie à Harvard où il suit les cours de Louis Agassiz (1807-1873). Volontaire durant la Guerre de Sécession, il obtient le rang de capitaine. En 1867, il devient conservateur à l’Essex Institute de Salem, puis, en 1870, professeur de zoologie et de paléontologie au Massachusetts Institute of Technology et démissionne en 1888 et conservateur de la Société d’histoire naturelle de Boston en 1881.
 En 1886, il devient assistant au département de paléontologie au Museum of Comparative Zoology et, en 1889, il entre au service de recherche géologique comme spécialiste du Trias et du Jurassique.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Common Hydroids, corals, and echinoderms (Boston, 1879).
 Commercial and other sponges (Boston, 1879).
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Alpheus Hyatt », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
